--- a/excel/sheets/Timesheet_Miroslav_Radojevic_W51_2021.xlsx
+++ b/excel/sheets/Timesheet_Miroslav_Radojevic_W51_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuctechnl-my.sharepoint.com/personal/mradojevic_nuctechnl_onmicrosoft_com/Documents/sheets/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{D83BB67A-2450-C74F-9BD1-AF00D39280B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F05108-3C62-C446-B8FF-7E962B075730}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{D83BB67A-2450-C74F-9BD1-AF00D39280B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60921A42-B546-8640-BD10-4F20C42CFA37}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27740" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <numFmt numFmtId="167" formatCode="_-&quot;fl&quot;\ * #,##0.00_-;_-&quot;fl&quot;\ * #,##0.00\-;_-&quot;fl&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -928,80 +928,80 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1350,57 +1350,57 @@
   <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="83" zoomScaleNormal="55" zoomScaleSheetLayoutView="83" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" customWidth="1"/>
-    <col min="17" max="18" width="8.85546875" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" customWidth="1"/>
-    <col min="20" max="21" width="8.85546875" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="11" max="12" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="15" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="24.5" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="33.75" customHeight="1">
+    <row r="1" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="73"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-    </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1">
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+    </row>
+    <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1416,45 +1416,45 @@
       <c r="M2" s="20"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-    </row>
-    <row r="3" spans="1:26" s="41" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A3" s="58" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+    </row>
+    <row r="3" spans="1:26" s="41" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="58" t="s">
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="40"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
       <c r="W3" s="42"/>
     </row>
-    <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1">
+    <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1470,237 +1470,237 @@
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="63" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="63" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="63" t="s">
+      <c r="K5" s="66"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="63" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="63" t="s">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="78"/>
-      <c r="U5" s="79"/>
-    </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="81"/>
-    </row>
-    <row r="7" spans="1:26" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="T5" s="66"/>
+      <c r="U5" s="67"/>
+    </row>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="70"/>
+    </row>
+    <row r="7" spans="1:26" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="71">
         <v>0.375</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="71">
         <v>0.375</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="71">
         <v>0.375</v>
       </c>
-      <c r="I7" s="82"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="71">
         <v>0.375</v>
       </c>
-      <c r="L7" s="82"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="71">
         <v>0.375</v>
       </c>
-      <c r="O7" s="82"/>
+      <c r="O7" s="72"/>
       <c r="P7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="71">
         <v>-8</v>
       </c>
-      <c r="R7" s="82"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="71">
         <v>-8</v>
       </c>
-      <c r="U7" s="82"/>
-    </row>
-    <row r="8" spans="1:26" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="U7" s="72"/>
+    </row>
+    <row r="8" spans="1:26" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="77">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="65">
+      <c r="E8" s="77">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F8" s="82"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="77">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="77">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L8" s="82"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="65">
+      <c r="N8" s="77">
         <v>0.72916666666666663</v>
       </c>
-      <c r="O8" s="82"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="71">
         <v>-8</v>
       </c>
-      <c r="R8" s="82"/>
+      <c r="R8" s="72"/>
       <c r="S8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="71">
         <v>-8</v>
       </c>
-      <c r="U8" s="82"/>
-    </row>
-    <row r="9" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="U8" s="72"/>
+    </row>
+    <row r="9" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="73">
         <f>IF(B7&gt;B8,B8+1-B7,B8-B7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="73">
         <f>IF(E7&gt;E8,E8+1-E7,E8-E7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="73">
         <f>IF(H7&gt;H8,H8+1-H7,H8-H7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="73">
         <f>IF(K7&gt;K8,K8+1-K7,K8-K7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="73">
         <f>IF(N7&gt;N8,N8+1-N7,N8-N7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="O9" s="83"/>
+      <c r="O9" s="74"/>
       <c r="P9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="66">
+      <c r="Q9" s="73">
         <f>IF(Q7&gt;Q8,Q8+1-Q7,Q8-Q7)*24</f>
         <v>0</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="74"/>
       <c r="S9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="66">
+      <c r="T9" s="73">
         <f>IF(T7&gt;T8,T8+1-T7,T8-T7)*24</f>
         <v>0</v>
       </c>
-      <c r="U9" s="83"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="U9" s="74"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1723,54 +1723,54 @@
       <c r="T10" s="7"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="75">
         <v>0.5</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="75">
         <v>0.5</v>
       </c>
-      <c r="F11" s="84"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="75">
         <v>0.5</v>
       </c>
-      <c r="I11" s="84"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="75">
         <v>0.5</v>
       </c>
-      <c r="L11" s="84"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="67">
+      <c r="N11" s="75">
         <v>0.5</v>
       </c>
-      <c r="O11" s="84"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="84"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76"/>
       <c r="S11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="67"/>
-      <c r="U11" s="84"/>
-    </row>
-    <row r="12" spans="1:26" ht="12.75" customHeight="1">
+      <c r="T11" s="75"/>
+      <c r="U11" s="76"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1793,65 +1793,65 @@
       <c r="T12" s="8"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="78">
         <f>B9-B11</f>
         <v>8</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="78">
         <f>E9-E11</f>
         <v>8</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="78">
         <f>H9-H11</f>
         <v>8</v>
       </c>
-      <c r="I13" s="85"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="78">
         <f>K9-K11</f>
         <v>8</v>
       </c>
-      <c r="L13" s="85"/>
+      <c r="L13" s="79"/>
       <c r="M13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="78">
         <f>N9-N11</f>
         <v>8</v>
       </c>
-      <c r="O13" s="85"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="78">
         <f>Q9-Q11</f>
         <v>0</v>
       </c>
-      <c r="R13" s="85"/>
+      <c r="R13" s="79"/>
       <c r="S13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T13" s="78">
         <f>T9-T11</f>
         <v>0</v>
       </c>
-      <c r="U13" s="85"/>
-    </row>
-    <row r="14" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="U13" s="79"/>
+    </row>
+    <row r="14" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -1874,42 +1874,42 @@
       <c r="T14" s="25"/>
       <c r="U14" s="26"/>
     </row>
-    <row r="15" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="86"/>
+      <c r="I15" s="82"/>
       <c r="J15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="82"/>
       <c r="M15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="86"/>
+      <c r="O15" s="82"/>
       <c r="P15" s="15" t="s">
         <v>18</v>
       </c>
@@ -1918,10 +1918,10 @@
       <c r="S15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="69"/>
-      <c r="U15" s="86"/>
-    </row>
-    <row r="16" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="T15" s="81"/>
+      <c r="U15" s="82"/>
+    </row>
+    <row r="16" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
@@ -1944,32 +1944,32 @@
       <c r="T16" s="34"/>
       <c r="U16" s="26"/>
     </row>
-    <row r="17" spans="1:21" s="14" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:21" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
       <c r="J17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="86"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="69"/>
-      <c r="O17" s="86"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="82"/>
       <c r="P17" s="15" t="s">
         <v>20</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="S17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="69"/>
-      <c r="U17" s="86"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+      <c r="T17" s="81"/>
+      <c r="U17" s="82"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -2004,7 +2004,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
+    <row r="19" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2027,7 +2027,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" s="21" customFormat="1" ht="21" customHeight="1" thickBot="1">
+    <row r="20" spans="1:21" s="21" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -2092,83 +2092,83 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A21" s="87" t="s">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="88">
-        <v>4</v>
+      <c r="B21" s="60">
+        <v>3.3</v>
       </c>
       <c r="C21" s="45"/>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="46">
-        <v>4</v>
-      </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="87" t="s">
+        <v>3.3</v>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="88">
-        <v>4</v>
-      </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="87" t="s">
+      <c r="H21" s="60">
+        <v>3.3</v>
+      </c>
+      <c r="I21" s="61"/>
+      <c r="J21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="46">
-        <v>4</v>
-      </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="87" t="s">
+        <v>3.3</v>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="N21" s="46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O21" s="45"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="89"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="61"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="46">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="46">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="46">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="46">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="46">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O22" s="47"/>
       <c r="P22" s="43"/>
@@ -2178,7 +2178,7 @@
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43" t="s">
         <v>26</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
@@ -2244,7 +2244,7 @@
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
@@ -2267,7 +2267,7 @@
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="44"/>
       <c r="B26" s="48"/>
       <c r="C26" s="47"/>
@@ -2290,7 +2290,7 @@
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
@@ -2313,7 +2313,7 @@
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
@@ -2336,7 +2336,7 @@
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
       <c r="B29" s="46"/>
       <c r="C29" s="47"/>
@@ -2359,7 +2359,7 @@
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
@@ -2382,7 +2382,7 @@
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
@@ -2405,7 +2405,7 @@
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -2428,7 +2428,7 @@
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
@@ -2451,7 +2451,7 @@
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
       <c r="B34" s="46"/>
       <c r="C34" s="47"/>
@@ -2474,7 +2474,7 @@
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
       <c r="B35" s="46"/>
       <c r="C35" s="47"/>
@@ -2497,7 +2497,7 @@
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
@@ -2520,7 +2520,7 @@
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="43"/>
       <c r="B37" s="46"/>
       <c r="C37" s="47"/>
@@ -2543,7 +2543,7 @@
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="43"/>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
@@ -2566,7 +2566,7 @@
       <c r="T38" s="48"/>
       <c r="U38" s="48"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="43"/>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -2589,7 +2589,7 @@
       <c r="T39" s="48"/>
       <c r="U39" s="48"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" customHeight="1" thickBot="1">
+    <row r="40" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49"/>
       <c r="B40" s="50"/>
       <c r="C40" s="51"/>
@@ -2612,65 +2612,65 @@
       <c r="T40" s="52"/>
       <c r="U40" s="52"/>
     </row>
-    <row r="41" spans="1:21" s="17" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A41" s="90" t="s">
+    <row r="41" spans="1:21" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="70">
+      <c r="B41" s="80">
         <f>IF(SUM(B21:B40)=0,"0",SUM(B21:B40))</f>
         <v>8</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="90" t="s">
+      <c r="C41" s="72"/>
+      <c r="D41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="80">
         <f>IF(SUM(E21:E40)=0,"0",SUM(E21:E40))</f>
         <v>8</v>
       </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="90" t="s">
+      <c r="F41" s="72"/>
+      <c r="G41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="70">
+      <c r="H41" s="80">
         <f>IF(SUM(H21:H40)=0,"0",SUM(H21:H40))</f>
         <v>8</v>
       </c>
-      <c r="I41" s="82"/>
-      <c r="J41" s="90" t="s">
+      <c r="I41" s="72"/>
+      <c r="J41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="70">
+      <c r="K41" s="80">
         <f>IF(SUM(K21:K40)=0,"0",SUM(K21:K40))</f>
         <v>8</v>
       </c>
-      <c r="L41" s="82"/>
-      <c r="M41" s="90" t="s">
+      <c r="L41" s="72"/>
+      <c r="M41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="70">
+      <c r="N41" s="80">
         <f>IF(SUM(N21:N40)=0,"0",SUM(N21:N40))</f>
         <v>8</v>
       </c>
-      <c r="O41" s="82"/>
-      <c r="P41" s="90" t="s">
+      <c r="O41" s="72"/>
+      <c r="P41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="70" t="str">
+      <c r="Q41" s="80" t="str">
         <f>IF(SUM(Q21:Q40)=0,"0",SUM(Q21:Q40))</f>
         <v>0</v>
       </c>
-      <c r="R41" s="82"/>
-      <c r="S41" s="90" t="s">
+      <c r="R41" s="72"/>
+      <c r="S41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="70" t="str">
+      <c r="T41" s="80" t="str">
         <f>IF(SUM(T21:T40)=0,"0",SUM(T21:T40))</f>
         <v>0</v>
       </c>
-      <c r="U41" s="82"/>
-    </row>
-    <row r="42" spans="1:21" s="17" customFormat="1" ht="6.75" customHeight="1">
+      <c r="U41" s="72"/>
+    </row>
+    <row r="42" spans="1:21" s="17" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -2693,7 +2693,7 @@
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
     </row>
-    <row r="43" spans="1:21" ht="20.25" customHeight="1">
+    <row r="43" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>27</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="71" t="s">
+      <c r="M43" s="83" t="s">
         <v>28</v>
       </c>
       <c r="N43" s="4"/>
@@ -2723,23 +2723,23 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21">
-      <c r="M44" s="91"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="M44" s="84"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
     </row>
-    <row r="45" spans="1:21" ht="45" customHeight="1">
+    <row r="45" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="56"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="J46" s="56"/>
     </row>
-    <row r="47" spans="1:21" ht="30.75" customHeight="1" thickBot="1">
+    <row r="47" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="28" t="s">
         <v>30</v>
       </c>
@@ -2764,12 +2764,12 @@
       <c r="S47" s="29"/>
       <c r="T47" s="29"/>
     </row>
-    <row r="48" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
+    <row r="48" spans="1:21" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="J48" s="56"/>
     </row>
-    <row r="49" spans="1:21" ht="20.25" customHeight="1">
+    <row r="49" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>32</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="20.25" customHeight="1">
+    <row r="50" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>33</v>
       </c>
@@ -2791,14 +2791,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="20.25" customHeight="1">
+    <row r="51" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="J51" s="56"/>
       <c r="K51" s="14"/>
     </row>
-    <row r="52" spans="1:21" ht="20.25" customHeight="1">
+    <row r="52" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>35</v>
       </c>
@@ -2825,13 +2825,13 @@
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
     </row>
-    <row r="53" spans="1:21" ht="20.25" customHeight="1">
+    <row r="53" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="J53" s="56"/>
     </row>
-    <row r="54" spans="1:21" ht="20.25" customHeight="1">
+    <row r="54" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>37</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="20.25" customHeight="1">
+    <row r="55" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>38</v>
       </c>
@@ -2853,14 +2853,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="20.25" customHeight="1">
+    <row r="56" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="J56" s="56"/>
       <c r="K56" s="14"/>
     </row>
-    <row r="57" spans="1:21" ht="20.25" customHeight="1">
+    <row r="57" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>40</v>
       </c>
@@ -2887,14 +2887,14 @@
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
     </row>
-    <row r="58" spans="1:21" ht="20.25" customHeight="1">
+    <row r="58" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="J58" s="56"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:21" ht="20.25" customHeight="1">
+    <row r="59" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>42</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="20.25" customHeight="1">
+    <row r="60" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>43</v>
       </c>
@@ -2916,14 +2916,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="20.25" customHeight="1">
+    <row r="61" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="J61" s="56"/>
       <c r="K61" s="14"/>
     </row>
-    <row r="62" spans="1:21" ht="20.25" customHeight="1">
+    <row r="62" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
         <v>45</v>
       </c>
@@ -2936,37 +2936,37 @@
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
       <c r="J62" s="57"/>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="L62" s="74"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="74"/>
-      <c r="S62" s="74"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
     </row>
-    <row r="63" spans="1:21" ht="20.25" customHeight="1">
+    <row r="63" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="74"/>
-      <c r="R63" s="74"/>
-      <c r="S63" s="74"/>
-    </row>
-    <row r="64" spans="1:21" ht="20.25" customHeight="1">
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+    </row>
+    <row r="64" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>47</v>
       </c>
@@ -2975,7 +2975,7 @@
       <c r="J64" s="56"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:21" ht="20.25" customHeight="1">
+    <row r="65" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>48</v>
       </c>
@@ -2984,14 +2984,14 @@
       <c r="J65" s="56"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:21" ht="20.25" customHeight="1">
+    <row r="66" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="J66" s="56"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:21" ht="20.25" customHeight="1">
+    <row r="67" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>49</v>
       </c>
@@ -3016,14 +3016,14 @@
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
     </row>
-    <row r="68" spans="1:21" ht="20.25" customHeight="1">
+    <row r="68" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="J68" s="56"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:21" ht="20.25" customHeight="1">
+    <row r="69" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>50</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="J69" s="56"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:21" ht="20.25" customHeight="1">
+    <row r="70" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>51</v>
       </c>
@@ -3041,14 +3041,14 @@
       <c r="J70" s="56"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:21" ht="20.25" customHeight="1">
+    <row r="71" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="J71" s="56"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:21" ht="20.25" customHeight="1">
+    <row r="72" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>52</v>
       </c>
@@ -3073,13 +3073,13 @@
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
     </row>
-    <row r="73" spans="1:21" ht="20.25" customHeight="1">
+    <row r="73" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="J73" s="56"/>
     </row>
-    <row r="74" spans="1:21" ht="20.25" customHeight="1">
+    <row r="74" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="F74" s="2"/>
       <c r="J74" s="56"/>
     </row>
-    <row r="75" spans="1:21" ht="20.25" customHeight="1">
+    <row r="75" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>54</v>
       </c>
@@ -3095,13 +3095,13 @@
       <c r="F75" s="2"/>
       <c r="J75" s="56"/>
     </row>
-    <row r="76" spans="1:21" ht="20.25" customHeight="1">
+    <row r="76" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="J76" s="56"/>
     </row>
-    <row r="77" spans="1:21" ht="20.25" customHeight="1">
+    <row r="77" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
         <v>55</v>
       </c>
@@ -3126,13 +3126,13 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
     </row>
-    <row r="78" spans="1:21" ht="20.25" customHeight="1">
+    <row r="78" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="J78" s="56"/>
     </row>
-    <row r="79" spans="1:21" ht="20.25" customHeight="1">
+    <row r="79" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
         <v>56</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="F79" s="2"/>
       <c r="J79" s="56"/>
     </row>
-    <row r="80" spans="1:21" ht="20.25" customHeight="1">
+    <row r="80" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>57</v>
       </c>
@@ -3148,13 +3148,13 @@
       <c r="F80" s="2"/>
       <c r="J80" s="56"/>
     </row>
-    <row r="81" spans="1:21" ht="20.25" customHeight="1">
+    <row r="81" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="J81" s="56"/>
     </row>
-    <row r="82" spans="1:21" ht="20.25" customHeight="1">
+    <row r="82" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
         <v>58</v>
       </c>
@@ -3179,13 +3179,13 @@
       <c r="T82" s="37"/>
       <c r="U82" s="37"/>
     </row>
-    <row r="83" spans="1:21" ht="20.25" customHeight="1">
+    <row r="83" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="J83" s="56"/>
     </row>
-    <row r="84" spans="1:21" ht="20.25" customHeight="1">
+    <row r="84" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>59</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="F84" s="2"/>
       <c r="J84" s="56"/>
     </row>
-    <row r="85" spans="1:21" ht="20.25" customHeight="1">
+    <row r="85" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>60</v>
       </c>
@@ -3201,13 +3201,13 @@
       <c r="F85" s="2"/>
       <c r="J85" s="56"/>
     </row>
-    <row r="86" spans="1:21" ht="20.25" customHeight="1">
+    <row r="86" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="J86" s="56"/>
     </row>
-    <row r="87" spans="1:21" ht="20.25" customHeight="1">
+    <row r="87" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
         <v>61</v>
       </c>
@@ -3232,13 +3232,13 @@
       <c r="T87" s="37"/>
       <c r="U87" s="37"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="J88" s="56"/>
     </row>
-    <row r="89" spans="1:21" ht="27.75" customHeight="1">
+    <row r="89" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="27" t="s">
         <v>62</v>
       </c>
@@ -3246,13 +3246,13 @@
       <c r="F89" s="2"/>
       <c r="J89" s="56"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="J90" s="56"/>
     </row>
-    <row r="91" spans="1:21" ht="20.25" customHeight="1">
+    <row r="91" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>63</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="F91" s="2"/>
       <c r="J91" s="56"/>
     </row>
-    <row r="92" spans="1:21" ht="20.25" customHeight="1">
+    <row r="92" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>64</v>
       </c>
@@ -3268,13 +3268,13 @@
       <c r="F92" s="2"/>
       <c r="J92" s="56"/>
     </row>
-    <row r="93" spans="1:21" ht="20.25" customHeight="1">
+    <row r="93" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="J93" s="56"/>
     </row>
-    <row r="94" spans="1:21" ht="20.25" customHeight="1">
+    <row r="94" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
         <v>65</v>
       </c>
@@ -3299,13 +3299,13 @@
       <c r="T94" s="37"/>
       <c r="U94" s="37"/>
     </row>
-    <row r="95" spans="1:21" ht="20.25" customHeight="1">
+    <row r="95" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="J95" s="56"/>
     </row>
-    <row r="96" spans="1:21" ht="20.25" customHeight="1">
+    <row r="96" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
         <v>66</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="F96" s="2"/>
       <c r="J96" s="56"/>
     </row>
-    <row r="97" spans="1:21" ht="20.25" customHeight="1">
+    <row r="97" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>67</v>
       </c>
@@ -3321,13 +3321,13 @@
       <c r="F97" s="2"/>
       <c r="J97" s="56"/>
     </row>
-    <row r="98" spans="1:21" ht="20.25" customHeight="1">
+    <row r="98" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="J98" s="56"/>
     </row>
-    <row r="99" spans="1:21" ht="20.25" customHeight="1">
+    <row r="99" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
         <v>68</v>
       </c>
@@ -3352,13 +3352,13 @@
       <c r="T99" s="37"/>
       <c r="U99" s="37"/>
     </row>
-    <row r="100" spans="1:21" ht="20.25" customHeight="1">
+    <row r="100" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="21"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="J100" s="56"/>
     </row>
-    <row r="101" spans="1:21" ht="20.25" customHeight="1">
+    <row r="101" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
         <v>69</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="F101" s="2"/>
       <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="1:21" ht="20.25" customHeight="1">
+    <row r="102" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>70</v>
       </c>
@@ -3374,13 +3374,13 @@
       <c r="F102" s="2"/>
       <c r="J102" s="56"/>
     </row>
-    <row r="103" spans="1:21" ht="20.25" customHeight="1">
+    <row r="103" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="J103" s="56"/>
     </row>
-    <row r="104" spans="1:21" ht="20.25" customHeight="1">
+    <row r="104" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
         <v>71</v>
       </c>
@@ -3407,6 +3407,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P1:U4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
     <mergeCell ref="K62:S63"/>
     <mergeCell ref="P5:R6"/>
     <mergeCell ref="Q7:R7"/>
@@ -3423,59 +3476,6 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J5:L6"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P1:U4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="G1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047249" right="0.11811023622047249" top="0.11811023622047249" bottom="0.11811023622047249" header="0" footer="0"/>

--- a/excel/sheets/Timesheet_Miroslav_Radojevic_W51_2021.xlsx
+++ b/excel/sheets/Timesheet_Miroslav_Radojevic_W51_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuctechnl-my.sharepoint.com/personal/mradojevic_nuctechnl_onmicrosoft_com/Documents/sheets/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miroslav/source/python-snippets/excel/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{D83BB67A-2450-C74F-9BD1-AF00D39280B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60921A42-B546-8640-BD10-4F20C42CFA37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611933A-B930-2744-9F62-65AEF574990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27740" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,48 +943,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -993,14 +951,56 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1382,23 +1382,23 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
     </row>
     <row r="2" spans="1:26" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A2" s="18"/>
@@ -1416,42 +1416,42 @@
       <c r="M2" s="20"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="1:26" s="41" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="85" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="86"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="90" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="40"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
       <c r="W3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -1481,224 +1481,224 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="65" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="65" t="s">
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="65" t="s">
+      <c r="K5" s="73"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65" t="s">
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="65" t="s">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="67"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="74"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="68"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="68"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="68"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="75"/>
       <c r="Q6" s="69"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="68"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="70"/>
+      <c r="U6" s="76"/>
     </row>
     <row r="7" spans="1:26" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="77">
         <v>0.375</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="77">
         <v>0.375</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="77">
         <v>0.375</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="77">
         <v>0.375</v>
       </c>
-      <c r="L7" s="72"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="77">
         <v>0.375</v>
       </c>
-      <c r="O7" s="72"/>
+      <c r="O7" s="78"/>
       <c r="P7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="77">
         <v>-8</v>
       </c>
-      <c r="R7" s="72"/>
+      <c r="R7" s="78"/>
       <c r="S7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="71">
+      <c r="T7" s="77">
         <v>-8</v>
       </c>
-      <c r="U7" s="72"/>
+      <c r="U7" s="78"/>
     </row>
     <row r="8" spans="1:26" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="79">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="79">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F8" s="72"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="79">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I8" s="72"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="79">
         <v>0.72916666666666663</v>
       </c>
-      <c r="L8" s="72"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="79">
         <v>0.72916666666666663</v>
       </c>
-      <c r="O8" s="72"/>
+      <c r="O8" s="78"/>
       <c r="P8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="77">
         <v>-8</v>
       </c>
-      <c r="R8" s="72"/>
+      <c r="R8" s="78"/>
       <c r="S8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="71">
+      <c r="T8" s="77">
         <v>-8</v>
       </c>
-      <c r="U8" s="72"/>
+      <c r="U8" s="78"/>
     </row>
     <row r="9" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="80">
         <f>IF(B7&gt;B8,B8+1-B7,B8-B7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="80">
         <f>IF(E7&gt;E8,E8+1-E7,E8-E7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="80">
         <f>IF(H7&gt;H8,H8+1-H7,H8-H7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="81"/>
       <c r="J9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="80">
         <f>IF(K7&gt;K8,K8+1-K7,K8-K7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="L9" s="74"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="80">
         <f>IF(N7&gt;N8,N8+1-N7,N8-N7)*24</f>
         <v>8.5</v>
       </c>
-      <c r="O9" s="74"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="80">
         <f>IF(Q7&gt;Q8,Q8+1-Q7,Q8-Q7)*24</f>
         <v>0</v>
       </c>
-      <c r="R9" s="74"/>
+      <c r="R9" s="81"/>
       <c r="S9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="80">
         <f>IF(T7&gt;T8,T8+1-T7,T8-T7)*24</f>
         <v>0</v>
       </c>
-      <c r="U9" s="74"/>
+      <c r="U9" s="81"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
@@ -1727,48 +1727,48 @@
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="82">
         <v>0.5</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="82">
         <v>0.5</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="82">
         <v>0.5</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="82">
         <v>0.5</v>
       </c>
-      <c r="L11" s="76"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="75">
+      <c r="N11" s="82">
         <v>0.5</v>
       </c>
-      <c r="O11" s="76"/>
+      <c r="O11" s="83"/>
       <c r="P11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="83"/>
       <c r="S11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="76"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="83"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
@@ -1797,59 +1797,59 @@
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="84">
         <f>B9-B11</f>
         <v>8</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="84">
         <f>E9-E11</f>
         <v>8</v>
       </c>
-      <c r="F13" s="79"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="84">
         <f>H9-H11</f>
         <v>8</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="78">
+      <c r="K13" s="84">
         <f>K9-K11</f>
         <v>8</v>
       </c>
-      <c r="L13" s="79"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="78">
+      <c r="N13" s="84">
         <f>N9-N11</f>
         <v>8</v>
       </c>
-      <c r="O13" s="79"/>
+      <c r="O13" s="85"/>
       <c r="P13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="84">
         <f>Q9-Q11</f>
         <v>0</v>
       </c>
-      <c r="R13" s="79"/>
+      <c r="R13" s="85"/>
       <c r="S13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="84">
         <f>T9-T11</f>
         <v>0</v>
       </c>
-      <c r="U13" s="79"/>
+      <c r="U13" s="85"/>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
@@ -1878,38 +1878,38 @@
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="82"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="81" t="s">
+      <c r="H15" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="82"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="81" t="s">
+      <c r="K15" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="82"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="81" t="s">
+      <c r="N15" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="82"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="15" t="s">
         <v>18</v>
       </c>
@@ -1918,8 +1918,8 @@
       <c r="S15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="81"/>
-      <c r="U15" s="82"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87"/>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
@@ -1948,28 +1948,28 @@
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
       <c r="P17" s="15" t="s">
         <v>20</v>
       </c>
@@ -1978,8 +1978,8 @@
       <c r="S17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="81"/>
-      <c r="U17" s="82"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -2097,35 +2097,35 @@
         <v>24</v>
       </c>
       <c r="B21" s="60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F21" s="61"/>
       <c r="G21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="59" t="s">
         <v>24</v>
       </c>
       <c r="N21" s="46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O21" s="45"/>
       <c r="P21" s="59"/>
@@ -2140,35 +2140,35 @@
         <v>25</v>
       </c>
       <c r="B22" s="46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="F22" s="48"/>
       <c r="G22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O22" s="47"/>
       <c r="P22" s="43"/>
@@ -2616,59 +2616,59 @@
       <c r="A41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="80">
+      <c r="B41" s="88">
         <f>IF(SUM(B21:B40)=0,"0",SUM(B21:B40))</f>
         <v>8</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="88">
         <f>IF(SUM(E21:E40)=0,"0",SUM(E21:E40))</f>
         <v>8</v>
       </c>
-      <c r="F41" s="72"/>
+      <c r="F41" s="78"/>
       <c r="G41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="80">
+      <c r="H41" s="88">
         <f>IF(SUM(H21:H40)=0,"0",SUM(H21:H40))</f>
         <v>8</v>
       </c>
-      <c r="I41" s="72"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="K41" s="80">
+      <c r="K41" s="88">
         <f>IF(SUM(K21:K40)=0,"0",SUM(K21:K40))</f>
         <v>8</v>
       </c>
-      <c r="L41" s="72"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="80">
+      <c r="N41" s="88">
         <f>IF(SUM(N21:N40)=0,"0",SUM(N21:N40))</f>
         <v>8</v>
       </c>
-      <c r="O41" s="72"/>
+      <c r="O41" s="78"/>
       <c r="P41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="80" t="str">
+      <c r="Q41" s="88" t="str">
         <f>IF(SUM(Q21:Q40)=0,"0",SUM(Q21:Q40))</f>
         <v>0</v>
       </c>
-      <c r="R41" s="72"/>
+      <c r="R41" s="78"/>
       <c r="S41" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="T41" s="80" t="str">
+      <c r="T41" s="88" t="str">
         <f>IF(SUM(T21:T40)=0,"0",SUM(T21:T40))</f>
         <v>0</v>
       </c>
-      <c r="U41" s="72"/>
+      <c r="U41" s="78"/>
     </row>
     <row r="42" spans="1:21" s="17" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32"/>
@@ -2711,7 +2711,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="83" t="s">
+      <c r="M43" s="89" t="s">
         <v>28</v>
       </c>
       <c r="N43" s="4"/>
@@ -2724,7 +2724,7 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="M44" s="84"/>
+      <c r="M44" s="90"/>
       <c r="N44" s="35"/>
       <c r="O44" s="35"/>
     </row>
@@ -2936,17 +2936,17 @@
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
       <c r="J62" s="57"/>
-      <c r="K62" s="63" t="s">
+      <c r="K62" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="64"/>
-      <c r="O62" s="64"/>
-      <c r="P62" s="64"/>
-      <c r="Q62" s="64"/>
-      <c r="R62" s="64"/>
-      <c r="S62" s="64"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="67"/>
+      <c r="Q62" s="67"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="67"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
     </row>
@@ -2956,15 +2956,15 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="J63" s="56"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="64"/>
-      <c r="M63" s="64"/>
-      <c r="N63" s="64"/>
-      <c r="O63" s="64"/>
-      <c r="P63" s="64"/>
-      <c r="Q63" s="64"/>
-      <c r="R63" s="64"/>
-      <c r="S63" s="64"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67"/>
     </row>
     <row r="64" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
@@ -3407,59 +3407,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="P1:U4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="M5:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:U13"/>
     <mergeCell ref="K62:S63"/>
     <mergeCell ref="P5:R6"/>
     <mergeCell ref="Q7:R7"/>
@@ -3476,6 +3423,59 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J5:L6"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M5:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="P1:U4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="G1:M1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047249" right="0.11811023622047249" top="0.11811023622047249" bottom="0.11811023622047249" header="0" footer="0"/>
